--- a/Projeto Introdução Web.xlsx
+++ b/Projeto Introdução Web.xlsx
@@ -224,9 +224,6 @@
     <t>Ana Paula Maia</t>
   </si>
   <si>
-    <t>Uma série de drama que mostra os dramas entre os médicos e pacientes num hospital do Rio de Janeiro.</t>
-  </si>
-  <si>
     <t>Jorge Furtado, Renato Fagundes,Luiz Noronha</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>David Crane, Marta Kauffman</t>
+  </si>
+  <si>
+    <t>Uma série que mostra os dramas entre os médicos e pacientes num hospital do Rio de Janeiro.</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,7 @@
         <v>47</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>48</v>
@@ -990,13 +990,13 @@
         <v>53</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1151,16 +1151,16 @@
         <v>8.6</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1192,16 +1192,16 @@
         <v>6.3</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
